--- a/Gantt Chart.xlsx
+++ b/Gantt Chart.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28016"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27907"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nazirmohammad/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anis/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20460" tabRatio="500"/>
+    <workbookView xWindow="4440" yWindow="460" windowWidth="24360" windowHeight="13960" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="31">
   <si>
     <t xml:space="preserve">Tasks </t>
   </si>
@@ -41,67 +41,85 @@
     <t xml:space="preserve">Duration </t>
   </si>
   <si>
-    <t>Gather Requirements</t>
-  </si>
-  <si>
     <t>Meetings</t>
   </si>
   <si>
-    <t>Softwares</t>
-  </si>
-  <si>
     <t>App design</t>
   </si>
   <si>
     <t>Project WBS</t>
   </si>
   <si>
-    <t>Project planing</t>
-  </si>
-  <si>
     <t>Gantt Chart</t>
   </si>
   <si>
-    <t>2nd feb 2017</t>
-  </si>
-  <si>
-    <t>3rd feb 2017</t>
-  </si>
-  <si>
-    <t>5th feb 2017</t>
-  </si>
-  <si>
-    <t>16th feb 2017</t>
-  </si>
-  <si>
-    <t>10th feb 2017</t>
-  </si>
-  <si>
-    <t>18th feb 2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10th feb 2017 </t>
-  </si>
-  <si>
-    <t>19th feb 2017</t>
-  </si>
-  <si>
-    <t>15th feb 2017</t>
-  </si>
-  <si>
-    <t>12th feb 2017</t>
-  </si>
-  <si>
-    <t>Logo</t>
-  </si>
-  <si>
-    <t>11th feb 2017</t>
-  </si>
-  <si>
     <t>Design Website</t>
   </si>
   <si>
     <t xml:space="preserve">Dividing Roles </t>
+  </si>
+  <si>
+    <t>17th Mar 2017</t>
+  </si>
+  <si>
+    <t>10th Mar 2017</t>
+  </si>
+  <si>
+    <t>3rd Feb 2017</t>
+  </si>
+  <si>
+    <t>15th Feb 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10th Feb 2017 </t>
+  </si>
+  <si>
+    <t>18th Feb 2017</t>
+  </si>
+  <si>
+    <t>10th Feb 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Softwares </t>
+  </si>
+  <si>
+    <t>Project Name</t>
+  </si>
+  <si>
+    <t>2nd Feb 2017</t>
+  </si>
+  <si>
+    <t>5th Feb 2017</t>
+  </si>
+  <si>
+    <t>16th Feb 2017</t>
+  </si>
+  <si>
+    <t>19th Feb 2017</t>
+  </si>
+  <si>
+    <t>Project Planing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gathering requirement </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Logo </t>
+  </si>
+  <si>
+    <t>9th Feb 2017</t>
+  </si>
+  <si>
+    <t>13th Feb 2017</t>
+  </si>
+  <si>
+    <t>2th Feb 2017</t>
+  </si>
+  <si>
+    <t>Colour Scheme</t>
+  </si>
+  <si>
+    <t>10rd Feb 2017</t>
   </si>
 </sst>
 </file>
@@ -216,7 +234,7 @@
     <c:plotArea>
       <c:layout/>
       <c:barChart>
-        <c:barDir val="col"/>
+        <c:barDir val="bar"/>
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
@@ -248,57 +266,63 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Sheet1!$A$2:$C$11</c15:sqref>
+                    <c15:sqref>Sheet1!$A$2:$C$13</c15:sqref>
                   </c15:fullRef>
                   <c15:levelRef>
-                    <c15:sqref>Sheet1!$A$2:$A$11</c15:sqref>
+                    <c15:sqref>Sheet1!$A$2:$A$13</c15:sqref>
                   </c15:levelRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Sheet1!$A$2:$A$11</c:f>
+              <c:f>Sheet1!$A$2:$A$13</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>Gather Requirements</c:v>
+                  <c:v>Dividing Roles </c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Dividing Roles </c:v>
+                  <c:v>Gathering requirement </c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Meetings</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Project planing</c:v>
+                  <c:v>Project Planing</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Softwares</c:v>
+                  <c:v>Softwares </c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>Logo </c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Project Name</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Colour Scheme</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>Design Website</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="9">
                   <c:v>App design</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="10">
                   <c:v>Project WBS</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="11">
                   <c:v>Gantt Chart</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Logo</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$11</c:f>
+              <c:f>Sheet1!$D$2:$D$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>7.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>3.0</c:v>
@@ -313,19 +337,25 @@
                   <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10.0</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10.0</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>3.0</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="11">
                   <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -340,17 +370,16 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="758506160"/>
-        <c:axId val="758534432"/>
+        <c:axId val="-863721664"/>
+        <c:axId val="-905149856"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="758506160"/>
+        <c:axId val="-863721664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:axPos val="b"/>
+        <c:axPos val="l"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -388,7 +417,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="758534432"/>
+        <c:crossAx val="-905149856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -396,12 +425,12 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="758534432"/>
+        <c:axId val="-905149856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:axPos val="l"/>
+        <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -446,7 +475,346 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="758506160"/>
+        <c:crossAx val="-863721664"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Duration </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$A$2:$C$13</c15:sqref>
+                  </c15:fullRef>
+                  <c15:levelRef>
+                    <c15:sqref>Sheet1!$A$2:$A$13</c15:sqref>
+                  </c15:levelRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$A$2:$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Dividing Roles </c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Gathering requirement </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Meetings</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Project Planing</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Softwares </c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Logo </c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Project Name</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Colour Scheme</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Design Website</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>App design</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Project WBS</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Gantt Chart</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$2:$D$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:axId val="-939816560"/>
+        <c:axId val="-838615664"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-939816560"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-838615664"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-838615664"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-939816560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -535,6 +903,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -1038,20 +1446,523 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>393700</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>660400</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>431800</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:colOff>673100</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1065,6 +1976,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>635000</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1336,10 +2277,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1365,16 +2306,16 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D2">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -1385,7 +2326,7 @@
         <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D3">
         <v>3</v>
@@ -1393,13 +2334,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D4">
         <v>4</v>
@@ -1407,13 +2348,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
         <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="D5">
         <v>7</v>
@@ -1421,13 +2362,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
         <v>15</v>
-      </c>
-      <c r="C6" t="s">
-        <v>16</v>
       </c>
       <c r="D6">
         <v>10</v>
@@ -1435,72 +2376,100 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="D7">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D8">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D9">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" t="s">
         <v>22</v>
       </c>
-      <c r="C11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11">
-        <v>2</v>
+      <c r="C13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
